--- a/Matriz rastreabilidade.xlsx
+++ b/Matriz rastreabilidade.xlsx
@@ -434,9 +434,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -449,9 +447,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -462,20 +458,24 @@
       <c r="A15" s="3">
         <v>3.0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
@@ -487,14 +487,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
@@ -502,12 +498,18 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
@@ -515,9 +517,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -530,9 +530,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -545,17 +543,26 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="J3:M3"/>
@@ -563,13 +570,6 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Matriz rastreabilidade.xlsx
+++ b/Matriz rastreabilidade.xlsx
@@ -148,14 +148,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF45818E"/>
+        <bgColor rgb="FF45818E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
         <bgColor rgb="FFE06666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45818E"/>
-        <bgColor rgb="FF45818E"/>
       </patternFill>
     </fill>
     <fill>
@@ -202,12 +202,12 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -275,7 +275,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -287,12 +287,12 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -312,7 +312,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -324,7 +324,7 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -332,7 +332,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -352,7 +352,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -366,7 +366,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -380,7 +380,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
